--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>785615.5750676662</v>
+        <v>783134.6552422064</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>214.9907574018283</v>
+        <v>43.81584958587217</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>44.69650948524075</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>68.85017973406266</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>270.3483887496541</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335567</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851355</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545852</v>
+        <v>72.02498669957826</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663272</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001942</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104955</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524939</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689273</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>88.44202534652133</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594429</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>103.5135637910345</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271945</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271181</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184866</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019109</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>3.974324134331858</v>
       </c>
       <c r="H17" t="n">
-        <v>64.76025162138166</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290889</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249342</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085023</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721231</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330928</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432835</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>274.7162491948567</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>287.3256240034759</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>224.6868053159338</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290889</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249342</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085023</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721231</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330928</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H22" t="n">
-        <v>133.2594259035644</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432835</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654133</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652887</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816016</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245694</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503347</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290894</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249346</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085027</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721235</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330933</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860188</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4571372041192</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432843</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.316554999894</v>
+        <v>274.7162491948569</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181091</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>214.2140663782792</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,7 +2956,7 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797749</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
         <v>98.44591140433866</v>
@@ -2965,7 +2965,7 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572869</v>
       </c>
       <c r="I31" t="n">
         <v>49.3772837912455</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>90.95618068285776</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>144.3761107440552</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>93.13769105450123</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>170.2318734253255</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239899</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>92.28848050112541</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>110.5480262953164</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333689</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.923044159214</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383247</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846416</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482624</v>
+        <v>89.94326605921883</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092322</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333689</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W46" t="n">
-        <v>232.377516191147</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1627.529684993093</v>
+        <v>1498.714766761814</v>
       </c>
       <c r="C11" t="n">
-        <v>1410.367303779125</v>
+        <v>1454.45633283669</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.293672432098</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E11" t="n">
-        <v>720.6974870935769</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>336.9036495636927</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636927</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>3021.735001525326</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2696.158413514935</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2349.884722513579</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1986.937457797491</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>681.7485111819778</v>
+        <v>418.3126375609368</v>
       </c>
       <c r="C13" t="n">
-        <v>681.7485111819778</v>
+        <v>276.5685218927536</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029468</v>
+        <v>276.5685218927536</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802772</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420905</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765331</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402571</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413538</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636301</v>
+        <v>967.1670306535528</v>
       </c>
       <c r="X13" t="n">
-        <v>1029.805420636301</v>
+        <v>766.3695470152592</v>
       </c>
       <c r="Y13" t="n">
-        <v>836.204908752494</v>
+        <v>572.7690351314527</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2071.326867229611</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1798.247686674404</v>
+        <v>797.5365442767281</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.174055327377</v>
+        <v>797.5365442767281</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>797.5365442767281</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589725</v>
+        <v>724.7840324589723</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636929</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039937</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3063.721540039937</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2759.85071995609</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.274131945699</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.274131945699</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y14" t="n">
-        <v>2071.326867229611</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>480.9510275436824</v>
+        <v>418.3126375609364</v>
       </c>
       <c r="C16" t="n">
-        <v>480.9510275436824</v>
+        <v>276.5685218927532</v>
       </c>
       <c r="D16" t="n">
-        <v>480.9510275436824</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>360.2300012210128</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>255.6708458765333</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765333</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402567</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5452,34 +5452,34 @@
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145083</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.433743974332</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.5229443597</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.030523413536</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.805420636299</v>
+        <v>967.1670306535528</v>
       </c>
       <c r="X16" t="n">
-        <v>829.0079369980051</v>
+        <v>766.3695470152588</v>
       </c>
       <c r="Y16" t="n">
-        <v>635.4074251141985</v>
+        <v>572.7690351314525</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.79283406037</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1403.472017327755</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>1119.848018928802</v>
+        <v>940.9592424104345</v>
       </c>
       <c r="E17" t="n">
-        <v>808.7014665383545</v>
+        <v>629.8126900199873</v>
       </c>
       <c r="F17" t="n">
-        <v>472.3572619565438</v>
+        <v>293.4684854381767</v>
       </c>
       <c r="G17" t="n">
-        <v>131.9265120093366</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5522,43 +5522,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936084</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936084</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.19961880031</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2624.072663737993</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.24860568471</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2009.750973916695</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.121778987229</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C19" t="n">
-        <v>474.827296267119</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625802</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604116</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088493</v>
@@ -5698,25 +5698,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088442</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865765</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062879</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064789</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356255</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454051</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096719</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1834.401689310019</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1540.080872577404</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1256.456874178451</v>
+        <v>940.9592424104349</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>629.8126900199877</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628258</v>
+        <v>293.4684854381771</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
@@ -5768,34 +5768,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344065</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936084</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417718</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281944</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219627</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166344</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2146.359829166344</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,46 +5817,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989061</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243099</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8627105341965</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>223.8015741167123</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604117</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088493</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088442</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865765</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817309</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
@@ -5975,46 +5975,46 @@
         <v>973.0946095349357</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953125</v>
+        <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>388.481326152853</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>722.3006998426995</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091108</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.866817763033</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821815</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.618105701152</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.39247205833</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124121</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859013</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
         <v>3501.902725451032</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714078</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902808</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290295</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.784598923574</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.250040950459</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094466</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130998</v>
@@ -6090,10 +6090,10 @@
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775285</v>
+        <v>575.9874173775274</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574184</v>
+        <v>481.6929346574175</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528795</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782833</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881698</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706856</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.0617317963402</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248242</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667905</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6169,7 +6169,7 @@
         <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762249</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357045</v>
+        <v>829.1450609357032</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999713</v>
+        <v>682.9941819999701</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094416</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676538</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
         <v>549.9474938257042</v>
@@ -6370,7 +6370,7 @@
         <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643395</v>
@@ -6379,13 +6379,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6415,7 +6415,7 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
@@ -6424,10 +6424,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467803</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>792.1780824632697</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1243.212295711679</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M29" t="n">
-        <v>1776.744200383603</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N29" t="n">
-        <v>2323.523017442385</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321722</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899673</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6646,7 +6646,7 @@
         <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519673</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659143</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424368</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094416</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6844,16 +6844,16 @@
         <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6862,19 +6862,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982178</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572252</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6977,10 +6977,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>499.5850729987471</v>
+        <v>444.8926667912275</v>
       </c>
       <c r="C37" t="n">
-        <v>429.3203246446836</v>
+        <v>374.6279184371639</v>
       </c>
       <c r="D37" t="n">
-        <v>377.8751198061913</v>
+        <v>323.1827135986716</v>
       </c>
       <c r="E37" t="n">
-        <v>328.6334607976415</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>280.4149478735745</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1691.629635548995</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1568.534454692365</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1279.431587818008</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1024.747099612121</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W37" t="n">
-        <v>834.0013641490042</v>
+        <v>877.9803925153279</v>
       </c>
       <c r="X37" t="n">
-        <v>704.6832478248302</v>
+        <v>649.9908416173106</v>
       </c>
       <c r="Y37" t="n">
-        <v>582.5621032551435</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307332</v>
@@ -7166,10 +7166,10 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7184,28 +7184,28 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228008</v>
@@ -7257,28 +7257,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7290,7 +7290,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866012</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325377</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2351809199101</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396067</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>779.3089579414846</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429975</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7400,25 +7400,25 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,31 +7427,31 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866016</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325381</v>
+        <v>473.299353011007</v>
       </c>
       <c r="D43" t="n">
-        <v>717.8684518940458</v>
+        <v>323.1827135986713</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>273.9410545901215</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>225.7225416660545</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429978</v>
+        <v>626.541131621467</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464961</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307319</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495713</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
@@ -7682,16 +7682,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,13 +7716,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>598.2565075725903</v>
+        <v>543.5641013650702</v>
       </c>
       <c r="C46" t="n">
-        <v>527.9917592185268</v>
+        <v>473.2993530110065</v>
       </c>
       <c r="D46" t="n">
-        <v>476.5465543800345</v>
+        <v>421.8541481725141</v>
       </c>
       <c r="E46" t="n">
-        <v>427.3048953714848</v>
+        <v>273.941054590121</v>
       </c>
       <c r="F46" t="n">
-        <v>379.0863824474179</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
         <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1031.344233296691</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X46" t="n">
-        <v>803.3546823986732</v>
+        <v>847.3337107649968</v>
       </c>
       <c r="Y46" t="n">
-        <v>681.2335378289865</v>
+        <v>626.5411316214667</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.235310843062</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728991</v>
+        <v>184.4039433729011</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389584</v>
+        <v>191.4948909389609</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333045</v>
+        <v>181.0856325333072</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830218</v>
+        <v>179.3553748830246</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383969</v>
+        <v>182.8301554383995</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586567</v>
+        <v>190.8908035586589</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626611</v>
+        <v>192.0103836266127</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875968</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372522</v>
+        <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672259</v>
+        <v>105.9629718672277</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253576</v>
+        <v>104.1013981253597</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677477</v>
+        <v>92.30246558677695</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359719</v>
+        <v>106.8829608359739</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798311</v>
+        <v>105.3113487798327</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615449</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564649</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085218</v>
+        <v>119.1996074085229</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140769</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530917</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662697</v>
+        <v>122.5080856662706</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.4994347185304</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8144253784346</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544149</v>
+        <v>306.6874953089238</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>21.13839585591472</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544138</v>
+        <v>131.2335379367248</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0221961971937</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>123.3619877820529</v>
+        <v>294.5368955980089</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104942</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>76.99881694584525</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>50.66363632538004</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763543</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>68.00435643422718</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>307.9309124550067</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579967</v>
+        <v>14.65678318579948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717757</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913428</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115016</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310861</v>
+        <v>33.25330108456455</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.98733764477042</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292105</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134026</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9522295602198</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20.7094628630669</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>112.3396371318007</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.46078767100878e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1047848.08343325</v>
+        <v>1047848.083433251</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>868798.4363985799</v>
+        <v>868798.43639858</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>868798.4363985797</v>
+        <v>868798.4363985799</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>976313.0149257672</v>
+        <v>976313.0149257673</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>976313.0149257672</v>
+        <v>976313.0149257673</v>
       </c>
     </row>
     <row r="16">
@@ -26317,13 +26317,13 @@
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471096.7351384191</v>
+        <v>471096.7351384193</v>
       </c>
       <c r="E2" t="n">
-        <v>419485.5005203609</v>
+        <v>419485.5005203608</v>
       </c>
       <c r="F2" t="n">
-        <v>419485.5005203605</v>
+        <v>419485.5005203608</v>
       </c>
       <c r="G2" t="n">
         <v>456855.2222167589</v>
@@ -26332,16 +26332,16 @@
         <v>456855.2222167589</v>
       </c>
       <c r="I2" t="n">
+        <v>472099.0176719635</v>
+      </c>
+      <c r="J2" t="n">
+        <v>472099.0176719633</v>
+      </c>
+      <c r="K2" t="n">
         <v>472099.0176719634</v>
       </c>
-      <c r="J2" t="n">
-        <v>472099.0176719634</v>
-      </c>
-      <c r="K2" t="n">
-        <v>472099.0176719633</v>
-      </c>
       <c r="L2" t="n">
-        <v>472099.0176719636</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="M2" t="n">
         <v>472099.017671963</v>
@@ -26353,7 +26353,7 @@
         <v>472099.0176719633</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552555</v>
+        <v>59764.55367552224</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487448</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983326</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179686</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475029</v>
+        <v>426120.683347504</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863733</v>
+        <v>39414.21797863748</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863728</v>
+        <v>39414.21797863748</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007957</v>
+        <v>76442.37834007968</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007961</v>
+        <v>76442.37834007968</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602841</v>
+        <v>89331.33560602847</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936333</v>
+        <v>86909.5572993633</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.5572993634</v>
+        <v>86909.55729936337</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.5572993633</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="M4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316932</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186643</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482646</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26485,31 +26485,31 @@
         <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521493</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
         <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9568.325510095827</v>
+        <v>-9572.739087963939</v>
       </c>
       <c r="C6" t="n">
-        <v>-9568.325510095827</v>
+        <v>-9572.739087963939</v>
       </c>
       <c r="D6" t="n">
-        <v>-49937.40731647571</v>
+        <v>-49941.76506661921</v>
       </c>
       <c r="E6" t="n">
-        <v>-785737.1799867325</v>
+        <v>-785965.9344091337</v>
       </c>
       <c r="F6" t="n">
-        <v>303501.7921768973</v>
+        <v>303273.0377544987</v>
       </c>
       <c r="G6" t="n">
-        <v>262314.0914565899</v>
+        <v>262247.8140850459</v>
       </c>
       <c r="H6" t="n">
-        <v>299894.2007514643</v>
+        <v>299827.92337992</v>
       </c>
       <c r="I6" t="n">
-        <v>274209.6859342596</v>
+        <v>274209.6859342593</v>
       </c>
       <c r="J6" t="n">
         <v>270402.085675997</v>
       </c>
       <c r="K6" t="n">
-        <v>295811.5186977938</v>
+        <v>295811.5186977939</v>
       </c>
       <c r="L6" t="n">
-        <v>258231.4094029201</v>
+        <v>258231.4094029198</v>
       </c>
       <c r="M6" t="n">
-        <v>95838.36541981934</v>
+        <v>95838.36541981947</v>
       </c>
       <c r="N6" t="n">
         <v>298006.465412544</v>
       </c>
       <c r="O6" t="n">
-        <v>298006.465412544</v>
+        <v>298006.4654125441</v>
       </c>
       <c r="P6" t="n">
-        <v>298006.4654125436</v>
+        <v>298006.4654125438</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790965</v>
+        <v>69.78465283790578</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>917.22193528103</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022933</v>
-      </c>
-      <c r="I4" t="n">
-        <v>917.2219352810303</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951238</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790965</v>
+        <v>69.78465283790578</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755389</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.11452592758428</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959712</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434003</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104722</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780166</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036569</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672083</v>
+        <v>84.22861846672112</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987474</v>
+        <v>90.83829126987526</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241795</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519042</v>
+        <v>84.46220888519092</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989655</v>
+        <v>7.649035050990465</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317002</v>
+        <v>75.62456067317061</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437875</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712628</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U19" t="n">
-        <v>11.49558901075619</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H22" t="n">
-        <v>11.49558901075633</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U25" t="n">
-        <v>73.8952832057189</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X25" t="n">
-        <v>11.49558901075793</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.8952832057189</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859307</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371141</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>45.39291458738671</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371161</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>54.14548214544376</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.47778196371179</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810501</v>
+        <v>55.47778196371242</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W46" t="n">
-        <v>54.14548214544405</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413451</v>
+        <v>0.2805413179413296</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366801</v>
+        <v>2.873093772366642</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993372</v>
+        <v>10.81556915993312</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362426</v>
+        <v>23.81059368362294</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208141</v>
+        <v>35.68590767207943</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102885</v>
+        <v>44.2715240310264</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396825</v>
+        <v>49.26060069396552</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135691</v>
+        <v>50.05768871356633</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328985</v>
+        <v>47.26805598328723</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661288</v>
+        <v>40.34219219661065</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783845</v>
+        <v>30.29530624783677</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313304</v>
+        <v>17.62255356313206</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588408</v>
+        <v>6.392835282588054</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288239</v>
+        <v>1.228069619288171</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353076</v>
+        <v>0.02244330543530636</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796547</v>
+        <v>0.1501028381796464</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44967741084035</v>
+        <v>1.449677410840269</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694253</v>
+        <v>5.168014384693967</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906993</v>
+        <v>14.18142647906914</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710679</v>
+        <v>24.23831663710545</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264828</v>
+        <v>32.59140791264647</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666076</v>
+        <v>38.03263579665865</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655853</v>
+        <v>39.03924649655637</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847249</v>
+        <v>35.71328360847052</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449915</v>
+        <v>28.66305863449757</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447663</v>
+        <v>19.16049562447557</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276839</v>
+        <v>9.319542882767873</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608935</v>
+        <v>2.788094384608781</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890467</v>
+        <v>0.6050197731890131</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345709</v>
+        <v>0.009875186722345162</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486895</v>
+        <v>0.1258411772486825</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811077</v>
+        <v>1.118842466811015</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078773</v>
+        <v>3.784387403078564</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482349</v>
+        <v>8.896971231481855</v>
       </c>
       <c r="K10" t="n">
-        <v>14.6204567748932</v>
+        <v>14.62045677489239</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477335</v>
+        <v>18.70915102477231</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908321</v>
+        <v>19.72617653908212</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115629</v>
+        <v>19.25713215115523</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875114</v>
+        <v>17.78707839875015</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287786</v>
+        <v>15.21991838287702</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852436</v>
+        <v>10.53748257852377</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381983</v>
+        <v>5.65827693338167</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233979</v>
+        <v>2.193068516233858</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625823</v>
+        <v>0.5376850300625525</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356489</v>
+        <v>0.00686406421356451</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987471</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019269</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019251</v>
+        <v>72.49856320019269</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806101</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546663</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322367</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250199</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127256</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.286435687243</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.7355412086614</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737867</v>
+        <v>705.4494815282957</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>358.3296824113152</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174792</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737858</v>
+        <v>529.9955241560966</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37230,13 +37230,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887913</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37795,7 +37795,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
